--- a/gd32f303_v1/КД/протокол ble тонометр.xlsx
+++ b/gd32f303_v1/КД/протокол ble тонометр.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Список команд" sheetId="2" r:id="rId1"/>
+    <sheet name="Описание команд" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="94">
   <si>
     <t>№ п/п</t>
   </si>
@@ -93,15 +94,6 @@
     <t>признак типа сообщения</t>
   </si>
   <si>
-    <t>0х01</t>
-  </si>
-  <si>
-    <t>0х02</t>
-  </si>
-  <si>
-    <t>0х03</t>
-  </si>
-  <si>
     <t>тонометр</t>
   </si>
   <si>
@@ -126,9 +118,6 @@
     <t>номер изделия, изготовленного за указанную неделю (ASCII)</t>
   </si>
   <si>
-    <t>запрос актуально даты и времени</t>
-  </si>
-  <si>
     <t>отправка даты и времени</t>
   </si>
   <si>
@@ -141,9 +130,6 @@
     <t>байт суммы</t>
   </si>
   <si>
-    <t>0х04</t>
-  </si>
-  <si>
     <t>обновление серийного номера</t>
   </si>
   <si>
@@ -153,9 +139,6 @@
     <t>0x32</t>
   </si>
   <si>
-    <t>0х05</t>
-  </si>
-  <si>
     <t>старт отправки данных</t>
   </si>
   <si>
@@ -223,18 +206,123 @@
   </si>
   <si>
     <t>7 - ошибка измерения</t>
+  </si>
+  <si>
+    <t>логин</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>признак конца строки</t>
+  </si>
+  <si>
+    <t>строка</t>
+  </si>
+  <si>
+    <t>массив байт</t>
+  </si>
+  <si>
+    <t>\0</t>
+  </si>
+  <si>
+    <t>запись логина</t>
+  </si>
+  <si>
+    <t>запись пароля</t>
+  </si>
+  <si>
+    <t>Код команды</t>
+  </si>
+  <si>
+    <t>отправка результатов измерения</t>
+  </si>
+  <si>
+    <t>запрос актуальной даты и времени</t>
+  </si>
+  <si>
+    <t>запрос пароля</t>
+  </si>
+  <si>
+    <t>запрос логина</t>
+  </si>
+  <si>
+    <t>запись URL</t>
+  </si>
+  <si>
+    <t>запрос URL</t>
+  </si>
+  <si>
+    <t>запись номера порта</t>
+  </si>
+  <si>
+    <t>запрос номера порта</t>
+  </si>
+  <si>
+    <t>запись ID пациента</t>
+  </si>
+  <si>
+    <t>запрос ID пациента</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>запись точки доступа</t>
+  </si>
+  <si>
+    <t>запрос точки доступа</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>точка доступа</t>
+  </si>
+  <si>
+    <t>номер порта</t>
+  </si>
+  <si>
+    <t>пароль</t>
+  </si>
+  <si>
+    <t>ID пациента</t>
+  </si>
+  <si>
+    <t>номер пакета</t>
+  </si>
+  <si>
+    <t>Строка длиной более 15 делится на N строк</t>
+  </si>
+  <si>
+    <t xml:space="preserve">массив байт </t>
+  </si>
+  <si>
+    <t>Запись - чтение строк</t>
+  </si>
+  <si>
+    <t>Строка длиной более 15 отправляется как N пакетов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -319,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -391,6 +479,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,17 +580,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,11 +593,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -704,10 +876,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="38" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="51">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
+        <v>4</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="51">
+        <v>5</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
+        <v>6</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="51">
+        <v>7</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
+        <v>8</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="51">
+        <v>9</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="34">
+        <v>10</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="51">
+        <v>11</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
+        <v>12</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
+        <v>13</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="51">
+        <v>14</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
+        <v>15</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="51">
+        <v>16</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="51">
+        <v>17</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F154"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,8 +1061,8 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" customWidth="1"/>
-    <col min="6" max="6" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="82" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -739,36 +1084,36 @@
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
-        <v>1</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="26">
+      <c r="A2" s="58">
+        <v>1</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="58">
         <v>2</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="F2" s="55" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -780,22 +1125,22 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="28"/>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="54">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="54">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -804,40 +1149,40 @@
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="54">
         <v>4</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="54">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -846,40 +1191,40 @@
       <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
-        <v>5</v>
-      </c>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="54">
+        <v>5</v>
+      </c>
+      <c r="B11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="54">
         <v>4</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -888,131 +1233,131 @@
       <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="30"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="30"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24" t="s">
+      <c r="A14" s="56"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="55"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="55"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="56"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="55"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="55"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="55"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="55"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="14" t="s">
+      <c r="F20" s="55"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="28"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="55"/>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>6</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="28"/>
+        <v>35</v>
+      </c>
+      <c r="F22" s="55"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
@@ -1023,36 +1368,36 @@
       <c r="F23" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="26">
-        <v>1</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="26">
+      <c r="A25" s="58">
+        <v>1</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="58">
         <v>2</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>27</v>
+        <v>50</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="32"/>
+        <v>51</v>
+      </c>
+      <c r="F26" s="62"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
@@ -1064,31 +1409,31 @@
       <c r="C27" s="8">
         <v>1</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="32"/>
+      <c r="D27" s="8">
+        <v>2</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="62"/>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>3</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C28" s="8">
         <v>1</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="32"/>
+        <v>35</v>
+      </c>
+      <c r="F28" s="62"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
@@ -1102,36 +1447,36 @@
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26">
-        <v>1</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="26">
+      <c r="A31" s="58">
+        <v>1</v>
+      </c>
+      <c r="B31" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="58">
         <v>2</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="F31" s="63" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="33"/>
+        <v>51</v>
+      </c>
+      <c r="F32" s="63"/>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
@@ -1143,22 +1488,22 @@
       <c r="C33" s="8">
         <v>1</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="33"/>
+      <c r="D33" s="8">
+        <v>3</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="63"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
+      <c r="A34" s="54">
         <v>3</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="54">
         <v>3</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -1167,40 +1512,40 @@
       <c r="E34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="33"/>
+      <c r="F34" s="63"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="33"/>
+      <c r="F35" s="63"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="33"/>
+      <c r="F36" s="63"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
+      <c r="A37" s="54">
         <v>4</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="54">
         <v>3</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -1209,49 +1554,49 @@
       <c r="E37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="33"/>
+      <c r="F37" s="63"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="33"/>
+      <c r="F38" s="63"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="33"/>
+      <c r="F39" s="63"/>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>5</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C40" s="8">
         <v>1</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F40" s="33"/>
+        <v>35</v>
+      </c>
+      <c r="F40" s="63"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
@@ -1262,36 +1607,36 @@
       <c r="F41" s="11"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="26">
-        <v>1</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="26">
+      <c r="A43" s="58">
+        <v>1</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="58">
         <v>2</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="F43" s="62" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="32"/>
+        <v>51</v>
+      </c>
+      <c r="F44" s="62"/>
     </row>
     <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
@@ -1303,105 +1648,105 @@
       <c r="C45" s="8">
         <v>1</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="32"/>
+      <c r="D45" s="8">
+        <v>4</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="62"/>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
+      <c r="A46" s="56">
         <v>3</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="24">
+      <c r="B46" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="56">
         <v>7</v>
       </c>
       <c r="D46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="62"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="61"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="32"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="32"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="25"/>
+      <c r="F47" s="62"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="57"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="32"/>
+      <c r="F48" s="62"/>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>4</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C49" s="8">
         <v>1</v>
       </c>
       <c r="D49" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="62"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="53">
+        <v>1</v>
+      </c>
+      <c r="B52" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="53">
+        <v>2</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="53"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="32"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="31">
-        <v>1</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="31">
-        <v>2</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="E53" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="F53" s="55"/>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="20">
@@ -1413,116 +1758,1464 @@
       <c r="C54" s="20">
         <v>1</v>
       </c>
-      <c r="D54" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="28"/>
+      <c r="D54" s="20">
+        <v>5</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="55"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="24">
+      <c r="A55" s="56">
         <v>3</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="24">
-        <v>2</v>
+      <c r="B55" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>81</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="28"/>
+        <v>48</v>
+      </c>
+      <c r="F55" s="55"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="25"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" s="28"/>
+        <v>49</v>
+      </c>
+      <c r="F56" s="55"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="20">
         <v>4</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C57" s="20">
         <v>1</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F57" s="28"/>
+        <v>47</v>
+      </c>
+      <c r="F57" s="55"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="29">
-        <v>5</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>58</v>
+      <c r="A58" s="60">
+        <v>5</v>
+      </c>
+      <c r="B58" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="54" t="s">
+        <v>52</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" s="28"/>
+        <v>45</v>
+      </c>
+      <c r="F58" s="55"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="28"/>
+        <v>43</v>
+      </c>
+      <c r="F59" s="55"/>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="20">
         <v>6</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C60" s="20">
         <v>1</v>
       </c>
       <c r="D60" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="55"/>
+    </row>
+    <row r="62" spans="1:6" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="53">
+        <v>1</v>
+      </c>
+      <c r="B64" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="53">
+        <v>2</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="53"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F60" s="28"/>
+      <c r="E65" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" s="55"/>
+    </row>
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="46">
+        <v>2</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="30">
+        <v>1</v>
+      </c>
+      <c r="D66" s="30">
+        <v>6</v>
+      </c>
+      <c r="E66" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="55"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="47">
+        <v>3</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="44">
+        <v>1</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="55"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="47">
+        <v>4</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="55"/>
+    </row>
+    <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="47">
+        <v>5</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="29">
+        <v>1</v>
+      </c>
+      <c r="D69" s="30">
+        <v>0</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F69" s="55"/>
+    </row>
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="46">
+        <v>6</v>
+      </c>
+      <c r="B70" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="30">
+        <v>1</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" s="55"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="53">
+        <v>1</v>
+      </c>
+      <c r="B72" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="53">
+        <v>2</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F72" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="53"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="55"/>
+    </row>
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="46">
+        <v>2</v>
+      </c>
+      <c r="B74" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="30">
+        <v>1</v>
+      </c>
+      <c r="D74" s="30">
+        <v>7</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F74" s="55"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="47">
+        <v>3</v>
+      </c>
+      <c r="B75" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="47">
+        <v>1</v>
+      </c>
+      <c r="D75" s="46">
+        <v>0</v>
+      </c>
+      <c r="E75" s="36"/>
+      <c r="F75" s="55"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="47">
+        <v>4</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="55"/>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="47">
+        <v>5</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="29">
+        <v>1</v>
+      </c>
+      <c r="D77" s="30">
+        <v>0</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77" s="55"/>
+    </row>
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="46">
+        <v>6</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="30">
+        <v>1</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" s="55"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="53">
+        <v>1</v>
+      </c>
+      <c r="B80" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="53">
+        <v>2</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F80" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="53"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F81" s="55"/>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="26">
+        <v>2</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="26">
+        <v>1</v>
+      </c>
+      <c r="D82" s="26">
+        <v>8</v>
+      </c>
+      <c r="E82" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F82" s="55"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="47">
+        <v>3</v>
+      </c>
+      <c r="B83" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="47">
+        <v>1</v>
+      </c>
+      <c r="D83" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F83" s="55"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="24">
+        <v>4</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="55"/>
+    </row>
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="24">
+        <v>5</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85" s="24">
+        <v>1</v>
+      </c>
+      <c r="D85" s="26">
+        <v>0</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F85" s="55"/>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="26">
+        <v>6</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="26">
+        <v>1</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F86" s="55"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="53">
+        <v>1</v>
+      </c>
+      <c r="B89" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="53">
+        <v>2</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="53"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90" s="55"/>
+    </row>
+    <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="46">
+        <v>2</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="30">
+        <v>1</v>
+      </c>
+      <c r="D91" s="30">
+        <v>9</v>
+      </c>
+      <c r="E91" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F91" s="55"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="47">
+        <v>3</v>
+      </c>
+      <c r="B92" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="47">
+        <v>1</v>
+      </c>
+      <c r="D92" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E92" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" s="55"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="47">
+        <v>4</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D93" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F93" s="55"/>
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="47">
+        <v>5</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="29">
+        <v>1</v>
+      </c>
+      <c r="D94" s="30">
+        <v>0</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="55"/>
+    </row>
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="46">
+        <v>6</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" s="30">
+        <v>1</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F95" s="55"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="53">
+        <v>1</v>
+      </c>
+      <c r="B97" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="53">
+        <v>2</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F97" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="53"/>
+      <c r="B98" s="54"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F98" s="55"/>
+    </row>
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="46">
+        <v>2</v>
+      </c>
+      <c r="B99" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="40">
+        <v>1</v>
+      </c>
+      <c r="D99" s="40">
+        <v>10</v>
+      </c>
+      <c r="E99" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F99" s="55"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="47">
+        <v>3</v>
+      </c>
+      <c r="B100" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" s="47">
+        <v>1</v>
+      </c>
+      <c r="D100" s="46">
+        <v>0</v>
+      </c>
+      <c r="E100" s="36"/>
+      <c r="F100" s="55"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="47">
+        <v>4</v>
+      </c>
+      <c r="B101" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="55"/>
+    </row>
+    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="47">
+        <v>5</v>
+      </c>
+      <c r="B102" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" s="41">
+        <v>1</v>
+      </c>
+      <c r="D102" s="40">
+        <v>0</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F102" s="55"/>
+    </row>
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="46">
+        <v>6</v>
+      </c>
+      <c r="B103" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="40">
+        <v>1</v>
+      </c>
+      <c r="D103" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F103" s="55"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="53">
+        <v>1</v>
+      </c>
+      <c r="B105" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="53">
+        <v>2</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F105" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="53"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F106" s="55"/>
+    </row>
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="46">
+        <v>2</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="30">
+        <v>1</v>
+      </c>
+      <c r="D107" s="30">
+        <v>11</v>
+      </c>
+      <c r="E107" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F107" s="55"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="47">
+        <v>3</v>
+      </c>
+      <c r="B108" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C108" s="47">
+        <v>1</v>
+      </c>
+      <c r="D108" s="46">
+        <v>0</v>
+      </c>
+      <c r="E108" s="36"/>
+      <c r="F108" s="55"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="47">
+        <v>4</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F109" s="55"/>
+    </row>
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="47">
+        <v>5</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C110" s="29">
+        <v>1</v>
+      </c>
+      <c r="D110" s="30">
+        <v>0</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110" s="55"/>
+    </row>
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="46">
+        <v>6</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="30">
+        <v>1</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F111" s="55"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="53">
+        <v>1</v>
+      </c>
+      <c r="B114" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="53">
+        <v>2</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F114" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="53"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="53"/>
+      <c r="D115" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F115" s="55"/>
+    </row>
+    <row r="116" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="30">
+        <v>2</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="30">
+        <v>1</v>
+      </c>
+      <c r="D116" s="30">
+        <v>12</v>
+      </c>
+      <c r="E116" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F116" s="55"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="50">
+        <v>3</v>
+      </c>
+      <c r="B117" s="49"/>
+      <c r="C117" s="50">
+        <v>1</v>
+      </c>
+      <c r="D117" s="50">
+        <v>0</v>
+      </c>
+      <c r="E117" s="36"/>
+      <c r="F117" s="55"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="50">
+        <v>4</v>
+      </c>
+      <c r="B118" s="49"/>
+      <c r="C118" s="50">
+        <v>1</v>
+      </c>
+      <c r="D118" s="50">
+        <v>0</v>
+      </c>
+      <c r="E118" s="36"/>
+      <c r="F118" s="55"/>
+    </row>
+    <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="30">
+        <v>5</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="30">
+        <v>1</v>
+      </c>
+      <c r="D119" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" s="55"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="53">
+        <v>1</v>
+      </c>
+      <c r="B121" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="53">
+        <v>2</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F121" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="53"/>
+      <c r="B122" s="54"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F122" s="55"/>
+    </row>
+    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="30">
+        <v>2</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="30">
+        <v>1</v>
+      </c>
+      <c r="D123" s="30">
+        <v>13</v>
+      </c>
+      <c r="E123" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F123" s="55"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="50">
+        <v>3</v>
+      </c>
+      <c r="B124" s="49"/>
+      <c r="C124" s="50">
+        <v>1</v>
+      </c>
+      <c r="D124" s="50">
+        <v>0</v>
+      </c>
+      <c r="E124" s="36"/>
+      <c r="F124" s="55"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="50">
+        <v>4</v>
+      </c>
+      <c r="B125" s="49"/>
+      <c r="C125" s="50">
+        <v>1</v>
+      </c>
+      <c r="D125" s="50">
+        <v>0</v>
+      </c>
+      <c r="E125" s="36"/>
+      <c r="F125" s="55"/>
+    </row>
+    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="30">
+        <v>5</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="30">
+        <v>1</v>
+      </c>
+      <c r="D126" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" s="55"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="53">
+        <v>1</v>
+      </c>
+      <c r="B128" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="53">
+        <v>2</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F128" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="53"/>
+      <c r="B129" s="54"/>
+      <c r="C129" s="53"/>
+      <c r="D129" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F129" s="55"/>
+    </row>
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="30">
+        <v>2</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="30">
+        <v>1</v>
+      </c>
+      <c r="D130" s="30">
+        <v>14</v>
+      </c>
+      <c r="E130" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="F130" s="55"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="50">
+        <v>3</v>
+      </c>
+      <c r="B131" s="49"/>
+      <c r="C131" s="50">
+        <v>1</v>
+      </c>
+      <c r="D131" s="50">
+        <v>0</v>
+      </c>
+      <c r="E131" s="36"/>
+      <c r="F131" s="55"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="50">
+        <v>4</v>
+      </c>
+      <c r="B132" s="49"/>
+      <c r="C132" s="50">
+        <v>1</v>
+      </c>
+      <c r="D132" s="50">
+        <v>0</v>
+      </c>
+      <c r="E132" s="36"/>
+      <c r="F132" s="55"/>
+    </row>
+    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="30">
+        <v>5</v>
+      </c>
+      <c r="B133" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133" s="30">
+        <v>1</v>
+      </c>
+      <c r="D133" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F133" s="55"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="53">
+        <v>1</v>
+      </c>
+      <c r="B135" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="53">
+        <v>2</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F135" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="53"/>
+      <c r="B136" s="54"/>
+      <c r="C136" s="53"/>
+      <c r="D136" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F136" s="55"/>
+    </row>
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="30">
+        <v>2</v>
+      </c>
+      <c r="B137" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" s="30">
+        <v>1</v>
+      </c>
+      <c r="D137" s="30">
+        <v>15</v>
+      </c>
+      <c r="E137" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F137" s="55"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="50">
+        <v>3</v>
+      </c>
+      <c r="B138" s="49"/>
+      <c r="C138" s="50">
+        <v>1</v>
+      </c>
+      <c r="D138" s="50">
+        <v>0</v>
+      </c>
+      <c r="E138" s="36"/>
+      <c r="F138" s="55"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="50">
+        <v>4</v>
+      </c>
+      <c r="B139" s="49"/>
+      <c r="C139" s="50">
+        <v>1</v>
+      </c>
+      <c r="D139" s="50">
+        <v>0</v>
+      </c>
+      <c r="E139" s="36"/>
+      <c r="F139" s="55"/>
+    </row>
+    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="30">
+        <v>5</v>
+      </c>
+      <c r="B140" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C140" s="30">
+        <v>1</v>
+      </c>
+      <c r="D140" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F140" s="55"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="53">
+        <v>1</v>
+      </c>
+      <c r="B142" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" s="53">
+        <v>2</v>
+      </c>
+      <c r="D142" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F142" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="53"/>
+      <c r="B143" s="54"/>
+      <c r="C143" s="53"/>
+      <c r="D143" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F143" s="55"/>
+    </row>
+    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="40">
+        <v>2</v>
+      </c>
+      <c r="B144" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" s="40">
+        <v>1</v>
+      </c>
+      <c r="D144" s="40">
+        <v>16</v>
+      </c>
+      <c r="E144" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F144" s="55"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="50">
+        <v>3</v>
+      </c>
+      <c r="B145" s="49"/>
+      <c r="C145" s="50">
+        <v>1</v>
+      </c>
+      <c r="D145" s="50">
+        <v>0</v>
+      </c>
+      <c r="E145" s="36"/>
+      <c r="F145" s="55"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="50">
+        <v>4</v>
+      </c>
+      <c r="B146" s="49"/>
+      <c r="C146" s="50">
+        <v>1</v>
+      </c>
+      <c r="D146" s="50">
+        <v>0</v>
+      </c>
+      <c r="E146" s="36"/>
+      <c r="F146" s="55"/>
+    </row>
+    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="40">
+        <v>5</v>
+      </c>
+      <c r="B147" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" s="40">
+        <v>1</v>
+      </c>
+      <c r="D147" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F147" s="55"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="53">
+        <v>1</v>
+      </c>
+      <c r="B149" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" s="53">
+        <v>2</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F149" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="53"/>
+      <c r="B150" s="54"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F150" s="55"/>
+    </row>
+    <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="30">
+        <v>2</v>
+      </c>
+      <c r="B151" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" s="30">
+        <v>1</v>
+      </c>
+      <c r="D151" s="30">
+        <v>17</v>
+      </c>
+      <c r="E151" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F151" s="55"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="50">
+        <v>3</v>
+      </c>
+      <c r="B152" s="49"/>
+      <c r="C152" s="50">
+        <v>1</v>
+      </c>
+      <c r="D152" s="50">
+        <v>0</v>
+      </c>
+      <c r="E152" s="36"/>
+      <c r="F152" s="55"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="50">
+        <v>4</v>
+      </c>
+      <c r="B153" s="49"/>
+      <c r="C153" s="50">
+        <v>1</v>
+      </c>
+      <c r="D153" s="50">
+        <v>0</v>
+      </c>
+      <c r="E153" s="36"/>
+      <c r="F153" s="55"/>
+    </row>
+    <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="30">
+        <v>5</v>
+      </c>
+      <c r="B154" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" s="30">
+        <v>1</v>
+      </c>
+      <c r="D154" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F154" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
+  <mergeCells count="93">
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="F142:F147"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="F72:F78"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="F149:F154"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="F121:F126"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="F105:F111"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="F64:F70"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="F114:F119"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="F89:F95"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="F135:F140"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="F128:F133"/>
     <mergeCell ref="F43:F49"/>
     <mergeCell ref="F31:F40"/>
     <mergeCell ref="A46:A48"/>
@@ -1532,11 +3225,8 @@
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="C34:C36"/>
     <mergeCell ref="A37:A39"/>
-    <mergeCell ref="D14:D21"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="F25:F28"/>
     <mergeCell ref="F2:F22"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
@@ -1547,13 +3237,23 @@
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="F80:F86"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="B55:B56"/>
     <mergeCell ref="C55:C56"/>
@@ -1566,5 +3266,6 @@
     <mergeCell ref="C52:C53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>